--- a/biology/Zoologie/Colibri_à_gorge_bleue/Colibri_à_gorge_bleue.xlsx
+++ b/biology/Zoologie/Colibri_à_gorge_bleue/Colibri_à_gorge_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_bleue</t>
+          <t>Colibri_à_gorge_bleue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lampornis clemenciae
 Le Colibri à gorge bleue (Lampornis clemenciae) est une espèce de grands oiseaux-mouches nord-américains.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_bleue</t>
+          <t>Colibri_à_gorge_bleue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colibri à gorge bleue peut atteindre de 11,5 à 12,5 cm de long pour un poids de 6 à 10 grammes. Son plumage est de couleur vert terne sur le haut de son corps, plutôt gris sur le ventre. Il possède un trait sourcilier blanc ainsi qu'une autre bande qui continue le bec.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_bleue</t>
+          <t>Colibri_à_gorge_bleue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ornithologue français René Lesson identifie cette espèce d'oiseaux (Lampornis clemenciae) en 1829 et lui donne le prénom de sa femme, Marie Clémence Lesson[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ornithologue français René Lesson identifie cette espèce d'oiseaux (Lampornis clemenciae) en 1829 et lui donne le prénom de sa femme, Marie Clémence Lesson.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_bleue</t>
+          <t>Colibri_à_gorge_bleue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe trois sous-espèces :
 Lampornis clemenciae bessophilus (Oberholser, 1918) ;
